--- a/shoes.xlsx
+++ b/shoes.xlsx
@@ -452,191 +452,211 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Size 8 - Nike Dunk SP 2020 High Iowa - New Shoes - Damaged box - Extra Laces</t>
+          <t>Shop on eBay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brand New · Nike</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>145</v>
+          <t>Brand New</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$20.00</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Men's Air Jordan 1 Retro Low OG White/University Red-White (CZ0790 161)</t>
+          <t>Shop on eBay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Brand New · Jordan · Air Jordan</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>126</v>
+          <t>Brand New</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$20.00</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NEW MENS NIKE OFF WHITE X AIR FORCE 1 MID SP LEATHER MAIZE YELLOW ATHLETIC SHOES</t>
+          <t>JORDAN MENS JUMPMAN TWO TREY BASKETBALL SHOES #DO1925 11W /9.5M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Brand New · Nike · Nike Air Force</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>120</v>
+          <t>New (Other) · Jordan · Air Jordan</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[DV0822-100] Mens Nike DUNK HIGH RETRO PRM 'CRACKED LEATHER SWOOSH'</t>
+          <t>adidas Hoops 3.0 Classic Vintage Mid Black Gum - Men’s 13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Brand New · Nike · Nike Dunk High</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>115</v>
+          <t>Brand New · adidas · adidas Hoops</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MENS NIKE DUNK LOW_VARSITY RED/SILVER-WHITE FQ6965-600-SIZE 9M /10.5W</t>
+          <t>Nike x Off-White Air Force 1 Mid SP Leather Varsity Maize - Size 11 Mens</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Brand New · Nike · Nike Dunk</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>115</v>
+          <t>New (Other) · Nike · Air Force One</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$108.00</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[DV0831-104] Mens Nike DUNK LOW 'WHITE HYPER ROYAL' Size 13 Men’s - Original Box</t>
+          <t>Nike Air Jordan 1 Low Retro OG White University Red CZ0790-161 Men’s 8.5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Brand New · Nike · Nike Dunk</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>115</v>
+          <t>Brand New · Nike · Air Jordan</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$105.00</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NEW MENS NIKE OFF WHITE X AIR FORCE 1 MID SP LEATHER MAIZE YELLOW ATHLETIC SHOES</t>
+          <t>Nike Terminator Low Shoes Men's Size 10 $120 White/University Blue FQ8748-412</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Brand New · Nike · Nike Air Force</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>114</v>
+          <t>Brand New · Nike · Nike Terminator</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$97.00</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nike x Off-White Air Force 1 Mid SP Leather Varsity Maize - Size 11 Mens</t>
+          <t>*NEW* Men Nike Air Flight Lite Mid Dust / Black (FJ2949 001 ), Sz 11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>New (Other) · Nike · Air Force One</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>108</v>
+          <t>Brand New · Nike · Nike Air</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$80.00</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nike Air Jordan 1 Low Retro OG White University Red CZ0790-161 Men’s 8.5</t>
+          <t>Adidas Forum Low x Bart Simpsons Tie Dye Sneakers GZ1777 NEW no box - 5K</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Brand New · Nike · Air Jordan</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>105</v>
+          <t>New (Other) · adidas · adidas Forum</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nike Air Max Excee - Black / Dark Grey New In Box - 11.5 Mens</t>
+          <t>NIKE AIR JORDAN LUKA 2 TRICK SHOT MEN'S SHOES WHITE GREEN DX8733-103 size 9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brand New · Nike · Nike Air Max</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>100</v>
+          <t>Brand New · Nike</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$75.00</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nike Terminator Low Shoes Men's Size 10 $120 White/University Blue FQ8748-412</t>
+          <t>Nike Terminator Low - University Blue/White - FQ8748-412 - Men's size 11 - New</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -644,89 +664,99 @@
           <t>Brand New · Nike · Nike Terminator</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>97</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$95.00</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nike Terminator Low - University Blue/White - FQ8748-412 - Men's size 11 - New</t>
+          <t>Size 8 - Nike Dunk SP 2020 High Iowa - New Shoes - Damaged box - Extra Laces</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Brand New</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>95</v>
+          <t>Brand New · Nike</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$145.00</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nike Air Jordan 1 Low Retro OG White University Red CZ0790-161 Men’s 9.5</t>
+          <t>NIB MEN NIKE FV0400 001 LEBRON WITNESS VIII FAZE BASKETBALL 9.5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>New (Other) · Nike · Air Jordan</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>94</v>
+          <t>Brand New · Nike · LeBron James</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$75.00</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JORDAN MENS JUMPMAN TWO TREY BASKETBALL SHOES #DO1925 11W /9.5M</t>
+          <t>NEW MENS NIKE OFF WHITE X AIR FORCE 1 MID SP LEATHER MAIZE YELLOW ATHLETIC SHOES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>New (Other) · Jordan · Air Jordan</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>90</v>
+          <t>Brand New · Nike · Nike Air Force</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$114.00</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adidas Hoops 3.0 Classic Vintage Mid Black Gum - Men’s 13</t>
+          <t>Nike Blazer Mid '77 EMB Sneaker Size 9 - New No Box</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Brand New · adidas · adidas Hoops</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>90</v>
+          <t>New (Other) · Nike · Nike Blazer</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$68.00</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>New Nike KD Trey 5 X Size 10.5 White Grey Black DD9538-009 KEVIN Durant Zoom Air</t>
+          <t>Size 13 Men Nike KD Trey 5 X Grey White Basketball Shoes DD9538 009 New No Box</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -734,233 +764,259 @@
           <t>Brand New</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>90</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$85.00</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Size 13 Men Nike KD Trey 5 X Grey White Basketball Shoes DD9538 009 New No Box</t>
+          <t>Nike Air Max SYSTM White Volt Sneakers Athletic Shoes DM9537-100 Men Size 9 NEW</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Brand New</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>85</v>
+          <t>New (Other) · Nike · Nike Air Max</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$73.00</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>*NEW* Men Nike Air Flight Lite Mid Dust / Black (FJ2949 001 ), Sz 11</t>
+          <t>Jordan Men's Luka 2 "Trick Shot" White/Green Basketball Shoes DX8733-103</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Brand New · Nike · Nike Air</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>80</v>
+          <t>Brand New · Jordan</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$75.00</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NIKE AIR JORDAN LUKA 2 TRICK SHOT MEN'S SHOES WHITE GREEN DX8733-103 size 9</t>
+          <t>[DV0822-100] Mens Nike DUNK HIGH RETRO PRM 'CRACKED LEATHER SWOOSH'</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Brand New · Nike</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>75</v>
+          <t>Brand New · Nike · Nike Dunk High</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$115.00</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jordan Men's Luka 2 "Trick Shot" White/Green Basketball Shoes DX8733-103</t>
+          <t>Nike Air Jordan 1 Low Retro OG White University Red CZ0790-161 Men’s 9.5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Brand New · Jordan</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>75</v>
+          <t>New (Other) · Nike · Air Jordan</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$94.00</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nike Roshe One Bamboo Turf Green Deep Volt 511881-307 sz 13 Men's</t>
+          <t>MENS NIKE DUNK LOW_VARSITY RED/SILVER-WHITE FQ6965-600-SIZE 9M /10.5W</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Brand New · Nike · Nike Roshe</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>75</v>
+          <t>Brand New · Nike · Nike Dunk</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$115.00</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Adidas Originals x Sean Wotherpoon HW Adilette - Hot Wheels - Slides- Size 12</t>
+          <t>Nike Roshe One Bamboo Turf Green Deep Volt 511881-307 sz 13 Men's</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Brand New · adidas · adidas Adilette</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>75</v>
+          <t>Brand New · Nike · Nike Roshe</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$75.00</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NIB MEN NIKE FV0400 001 LEBRON WITNESS VIII FAZE BASKETBALL 9.5</t>
+          <t>NEW MENS NIKE OFF WHITE X AIR FORCE 1 MID SP LEATHER MAIZE YELLOW ATHLETIC SHOES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Brand New · Nike · LeBron James</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>75</v>
+          <t>Brand New · Nike · Nike Air Force</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nike Air Max SYSTM White Volt Sneakers Athletic Shoes DM9537-100 Men Size 9 NEW</t>
+          <t>Adidas Originals x Sean Wotherpoon HW Adilette - Hot Wheels - Slides- Size 12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>New (Other) · Nike · Nike Air Max</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>73</v>
+          <t>Brand New · adidas · adidas Adilette</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$75.00</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nike Blazer Mid '77 EMB Sneaker Size 9 - New No Box</t>
+          <t>[DV0831-104] Mens Nike DUNK LOW 'WHITE HYPER ROYAL' Size 13 Men’s - Original Box</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>New (Other) · Nike · Nike Blazer</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>68</v>
+          <t>Brand New · Nike · Nike Dunk</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$115.00</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Adidas Forum Low x Bart Simpsons Tie Dye Sneakers GZ1777 NEW no box - 5K</t>
+          <t>Men's Air Jordan 1 Retro Low OG White/University Red-White (CZ0790 161)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>New (Other) · adidas · adidas Forum</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>45</v>
+          <t>Brand New · Jordan · Air Jordan</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$126.00</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nike Alpha Menace 3 Shark Men's Football Cleats - Size 12</t>
+          <t>Nike Air Max Excee - Black / Dark Grey New In Box - 11.5 Mens</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>New (Other) · Nike · Nike Alpha</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>45</v>
+          <t>Brand New · Nike · Nike Air Max</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$100.00</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Shop on eBay</t>
+          <t>Nike Alpha Menace 3 Shark Men's Football Cleats - Size 12</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Brand New</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>20</v>
+          <t>New (Other) · Nike · Nike Alpha</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$45.99</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Shop on eBay</t>
+          <t>New Nike KD Trey 5 X Size 10.5 White Grey Black DD9538-009 KEVIN Durant Zoom Air</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -968,8 +1024,10 @@
           <t>Brand New</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>20</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
       </c>
     </row>
   </sheetData>
